--- a/natura/recursos/imagenes_de_productos/pendientes/nombres encontrados para cambiar.xlsx
+++ b/natura/recursos/imagenes_de_productos/pendientes/nombres encontrados para cambiar.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e6ff3132fe52cb1/paginas web/stock/natura/recursos/imagenes_de_productos/ok/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e6ff3132fe52cb1/paginas web/stock/natura/recursos/imagenes_de_productos/pendientes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="11_AD4D2F04E46CFB4ACB3E20A02DD0C466693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C19525C-4C4B-4D58-B589-57417F7CFC39}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="11_AD4D2F04E46CFB4ACB3E20A02DD0C466693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCF697B3-9F51-440C-9F85-D079D8883EB4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Log_Renombrado" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t>original</t>
   </si>
@@ -143,6 +154,108 @@
   </si>
   <si>
     <t>Y:\OneDrive\paginas web\stock\natura\recursos\imagenes_de_productos\ok\49_Humor Meu Primeiro Femenino 75 ml.jpeg</t>
+  </si>
+  <si>
+    <t>Archivo Original</t>
+  </si>
+  <si>
+    <t>Nombre del producto</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-12-11 at 1.13.10 PM (1).jpeg</t>
+  </si>
+  <si>
+    <t>270_Ekos Tukuma Crema Hidratante Para Manos 75 g</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-12-11 at 1.13.10 PM (2).jpeg</t>
+  </si>
+  <si>
+    <t>271_Ekos Castaña Crema Hidratante Para Manos 75 g</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-12-11 at 1.13.10 PM.jpeg</t>
+  </si>
+  <si>
+    <t>267_Ekos Maracuya Crema Hidratante Para Manos 75 g</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-12-11 at 1.13.11 PM.jpeg</t>
+  </si>
+  <si>
+    <t>265_Ekos Cacao Crema Hidratante Para Manos 75 g</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-12-11 at 1.13.12 PM (1).jpeg</t>
+  </si>
+  <si>
+    <t>268_Ekos Maracuya Noche Crema Hidratante Para Manos 75 g</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-12-11 at 1.13.12 PM (2).jpeg</t>
+  </si>
+  <si>
+    <t>Homem Potence Masculino Deo Corporal 100 ml</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-12-11 at 1.13.12 PM.jpeg</t>
+  </si>
+  <si>
+    <t>266_Ekos Pitanga Crema Hidratante Para Manos 75 g</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-12-11 at 1.13.13 PM (1).jpeg</t>
+  </si>
+  <si>
+    <t>Humor Liberta Unisex Deo Corporal 100 ml</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-12-11 at 1.13.13 PM.jpeg</t>
+  </si>
+  <si>
+    <t>Homem Essence Masculino Deo Corporal 100 ml</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-12-12 at 7.01.33 AM (1).jpeg</t>
+  </si>
+  <si>
+    <t>58_Kaiak Clasico Femenino 100 ml</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-12-12 at 7.01.35 AM (1).jpeg</t>
+  </si>
+  <si>
+    <t>260_Homem Masculino Desodorante En Roll-On 75 ml</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-12-12 at 7.01.35 AM.jpeg</t>
+  </si>
+  <si>
+    <t>Erva Doce Unisex Desodorante Antitranspirante Roll On 70 ml</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-12-12 at 7.01.33 AM (2).jpeg</t>
+  </si>
+  <si>
+    <t>56_Kaiak Aventura Femenino 100 ml</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-12-12 at 7.01.33 AM.jpeg</t>
+  </si>
+  <si>
+    <t>352_Ekos Acai Crema Hidratante Para Manos 75 g</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-12-12 at 7.01.34 AM (1).jpeg</t>
+  </si>
+  <si>
+    <t>259_Homem Sin Perfume Masculino Desodorante En Roll-On 75 ml</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-12-12 at 7.01.34 AM.jpeg</t>
+  </si>
+  <si>
+    <t>65_Kaiak Sonar Femenino 100 ml</t>
   </si>
 </sst>
 </file>
@@ -209,10 +322,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,11 +588,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,72 +610,148 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
